--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1911.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3D4679-79FE-40C2-8D9C-DB6E44F49769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C70D6-9FA9-493A-9199-889E2C4E410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4166,14 +4166,14 @@
         <v>793.6</v>
       </c>
       <c r="M58" s="2">
-        <v>762.41</v>
+        <v>762.4</v>
       </c>
       <c r="N58" s="2">
         <v>1556</v>
       </c>
       <c r="O58" s="4">
         <f t="shared" si="2"/>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="4">
         <f t="shared" si="3"/>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="R58" s="4">
         <f t="shared" si="4"/>
-        <v>-9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="5"/>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2">
-        <v>328.11</v>
+        <v>328.1</v>
       </c>
       <c r="M97" s="2">
         <v>295.89999999999998</v>
@@ -6433,11 +6433,11 @@
       </c>
       <c r="O97" s="4">
         <f t="shared" si="8"/>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="Q97" s="4">
         <f t="shared" si="9"/>
-        <v>-1.0000000000047748E-2</v>
+        <v>0</v>
       </c>
       <c r="R97" s="4">
         <f t="shared" si="10"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C70D6-9FA9-493A-9199-889E2C4E410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6CEE63-67EC-43B1-9F14-C35910CA77D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="87015" yWindow="0" windowWidth="27960" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -815,10 +815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
-  <dimension ref="A1:S109"/>
+  <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L98" sqref="L98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2163,13 +2163,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="2">
-        <v>1296.5999999999999</v>
+        <v>1029.2</v>
       </c>
       <c r="C24" s="2">
-        <v>1294.5</v>
+        <v>1050.8</v>
       </c>
       <c r="D24" s="2">
-        <v>2591.1</v>
+        <v>2080</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
@@ -2177,13 +2177,13 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>144.30000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="H24" s="2">
-        <v>133.5</v>
+        <v>88</v>
       </c>
       <c r="I24" s="2">
-        <v>277.8</v>
+        <v>181.5</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="1"/>
@@ -2191,13 +2191,13 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2">
-        <v>1440.9</v>
+        <v>1122.7</v>
       </c>
       <c r="M24" s="2">
-        <v>1428</v>
+        <v>1138.8</v>
       </c>
       <c r="N24" s="2">
-        <v>2868.9</v>
+        <v>2261.5</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="2"/>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -3839,8 +3839,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="U52" s="2">
+        <f>SUM(N2:N51)</f>
+        <v>120587.99999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -4014,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -4072,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -4130,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -4188,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -4246,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -4420,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -4478,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>66</v>
       </c>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6CEE63-67EC-43B1-9F14-C35910CA77D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED15B87C-E124-4177-996C-188D9225EB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="87015" yWindow="0" windowWidth="27960" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89130" yWindow="930" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -787,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -817,8 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
